--- a/data/georgia_census/imereti/kutaisi/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/kutaisi/healthcare_staff.xlsx
@@ -1275,13 +1275,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{365A0CB4-7F0D-4335-A191-0E695A22B9E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724F607A-EE07-4F1D-939F-FB943E730054}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E885872B-59C6-40C6-AC89-AD8F5E4E851C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E52AB81E-C1DD-434A-A5F2-E37073CB38BA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9688759-D66B-4187-ACBB-F1A54BF43081}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DB37BAC-074E-48A3-ACD1-79B67621CAE9}"/>
 </file>